--- a/利润表/002323.xlsx
+++ b/利润表/002323.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>003</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-06-30 00:00:00</t>
+          <t>2017-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>116527378.76</v>
+        <v>13188261.22</v>
       </c>
       <c r="P2" t="n">
-        <v>624026463.4400001</v>
+        <v>155799164.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>494143815.58</v>
+        <v>139740128.37</v>
       </c>
       <c r="R2" t="n">
-        <v>109.9005016726</v>
+        <v>79.1724692623</v>
       </c>
       <c r="S2" t="n">
-        <v>412737301.82</v>
+        <v>103067219.91</v>
       </c>
       <c r="T2" t="n">
-        <v>412737301.82</v>
+        <v>103067219.91</v>
       </c>
       <c r="U2" t="n">
-        <v>114.3016950595</v>
+        <v>60.4653990737</v>
       </c>
       <c r="V2" t="n">
-        <v>18811524.45</v>
+        <v>7797695.17</v>
       </c>
       <c r="W2" t="n">
-        <v>47812482.99</v>
+        <v>22601506.34</v>
       </c>
       <c r="X2" t="n">
-        <v>13601171.02</v>
+        <v>5961936.11</v>
       </c>
       <c r="Y2" t="n">
-        <v>140067647.86</v>
+        <v>16059036.16</v>
       </c>
       <c r="Z2" t="n">
-        <v>140099231.24</v>
+        <v>17419226.89</v>
       </c>
       <c r="AA2" t="n">
-        <v>23522545.91</v>
+        <v>4303285.44</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1180041.94</v>
+        <v>311770.84</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>110.4031155189</v>
+        <v>68.9635825191</v>
       </c>
       <c r="AQ2" t="n">
-        <v>128.988391749672</v>
+        <v>12.958478971384</v>
       </c>
       <c r="AR2" t="n">
-        <v>143.096772065378</v>
+        <v>15.790294826551</v>
       </c>
       <c r="AS2" t="n">
-        <v>107988598.33</v>
+        <v>12167455.89</v>
       </c>
       <c r="AT2" t="n">
-        <v>45.78091214398</v>
+        <v>6.790128099232</v>
       </c>
     </row>
   </sheetData>
